--- a/textos_selecionados.xlsx
+++ b/textos_selecionados.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engwe\Dropbox\IRAMUTEQ\APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engwe\Dropbox\IRAMUTEQ\Arquivos_aplicação_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E510E074-A175-47EE-9A78-A1677B5F2F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FC1ECA-720A-4051-B8BF-E7D70AA865B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72950987-96F4-4B0A-A14C-4EAB4A583D63}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Artigos (50)" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumos (20)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,15 +36,429 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="132">
+  <si>
+    <t>Decisão do editor</t>
+  </si>
+  <si>
+    <t>Este artigo foi retratado a pedido do Editor. Há referências inexistentes neste artigo, o que, segundo os autores, foi um erro causado por um sistema de gerenciamento de referências. Os autores propuseram uma retificação; no entanto, as correções propostas não sustentariam totalmente a posição do artigo e sua credibilidade, e o Editor, portanto, decidiu retratar o artigo.</t>
+  </si>
+  <si>
+    <t>A pedido do Editor-Chefe, este artigo foi retratado. Partes da Introdução são plagiadas. De acordo com a política de publicação do periódico, o artigo foi retratado.</t>
+  </si>
+  <si>
+    <t>Este artigo foi retratado a pedido dos autores e com a aprovação do Editor-Chefe. Os autores forneceram a seguinte justificativa para a necessidade de retratação deste artigo: o artigo foi submetido e posteriormente processado sem a aprovação e o conhecimento do segundo autor, que foi cegado pelo primeiro autor e autor correspondente ao usar intencionalmente um endereço de e-mail incorreto. Devido a esta grave falta de conduta ética, os autores solicitam a retratação do artigo. O primeiro autor e autor correspondente pedem desculpas por qualquer inconveniente causado.</t>
+  </si>
+  <si>
+    <t>Após a publicação, os autores constataram que a hipótese desta pesquisa não possui base válida, o que impossibilita a reprodução dos resultados. Além disso, há uma disputa sobre a aprovação de experimentos com animais e os autores não conseguiram obter a autorização adequada para divulgar os dados. Os autores levaram essas questões à atenção do Editor-Chefe, que concordou com a necessidade de retratação deste artigo.</t>
+  </si>
+  <si>
+    <t>O artigo foi retirado a pedido dos autores, pois foi constatado, após a publicação, que o processo de coleta de dados para a pesquisa não estava em total conformidade com a política institucional dos autores. Pedimos desculpas aos leitores por qualquer confusão e inconveniência causadas.</t>
+  </si>
+  <si>
+    <t>Após a publicação, os editores descobriram alterações suspeitas na autoria entre a submissão original e a versão revisada deste artigo. Em resumo, o artigo foi submetido por um único autor. Durante a revisão, os nomes dos outros autores foram adicionados ao artigo revisado sem explicação e sem aprovação excepcional do editor do periódico, o que é contrário à política do periódico sobre alterações na autoria. Os editores entraram em contato com os autores para obter uma explicação, mas eles não forneceram uma explicação satisfatória para essas alterações. Além disso, parece que o autor estava alegando uma afiliação com a Arian Company, Yerevan. Quando questionado, o autor não foi capaz de fornecer evidências convincentes da existência e natureza desta empresa. No geral, o editor considera que as conclusões do manuscrito não são confiáveis ​​e que o artigo precisa ser retratado.</t>
+  </si>
+  <si>
+    <t>O periódico foi alertado sobre problemas neste artigo, incluindo a presença da frase "Até onde sei, limite em 2021", indicativa da produção do ChatGPT, a procedência desconhecida de quatorze estudos de caso e uma Figura 1 sem sentido. De acordo com a política do periódico, o autor foi contatado e solicitado a fornecer uma explicação para essas preocupações. O autor não atendeu satisfatoriamente a essa solicitação. Deve-se observar que, no momento da submissão, o autor declarou que ferramentas de IA generativa foram usadas para escrever o manuscrito. No entanto, na visão do periódico, seu uso parece ter se estendido além da melhoria da linguagem e da legibilidade e, portanto, representa uma violação da política do periódico. O Editor-Chefe perdeu a confiança na confiabilidade deste artigo e decidiu retratá-lo. O autor correspondente não concorda com a retratação. O periódico lamenta sinceramente que esses problemas não tenham sido detectados durante o processo de triagem e avaliação do manuscrito e apresentamos desculpas aos leitores do periódico.</t>
+  </si>
+  <si>
+    <t>Este artigo foi retirado a pedido dos autores. Após uma reanálise completa após receber um comentário no PubPeer, os autores identificaram discrepâncias no conjunto de dados relacionados a experimentos celulares que podem comprometer a confiabilidade das principais conclusões. Para garantir o rigor acadêmico, os autores estão conduzindo uma verificação abrangente de todos os dados experimentais e processos analíticos. Os autores lamentam profundamente qualquer inconveniente causado ao periódico e aos leitores.</t>
+  </si>
+  <si>
+    <t>O autor correspondente tentou adicionar uma nova afiliação ao autor Amin Foroozandeh durante a fase de revisão do artigo. Samad Dalvand fez uma declaração falsa à equipe de produção do periódico sobre a aprovação do Editor-Chefe para as atualizações de afiliação, que não foram recebidas ou aprovadas pelo Editor-Chefe. Isso viola a política de autoria do periódico e o Editor decidiu retirar o artigo.</t>
+  </si>
+  <si>
+    <t>Após a publicação, os autores identificaram erros significativos nos dados experimentais e nos métodos de análise estatística apresentados no estudo. Após uma revisão completa, descobriu-se que essas imprecisões comprometem a integridade dos resultados e, portanto, os autores acreditam que é do melhor interesse da comunidade científica retratar o artigo. Os autores pedem desculpas por qualquer inconveniente que isso possa causar.</t>
+  </si>
+  <si>
+    <t>Após a análise dos dados brutos fornecidos pelos autores, regiões significativas das varreduras de XRD da Figura 3 foram identificadas como idênticas ao nível do ruído instrumental. Essa exatidão não é fisicamente possível, dada a natureza estocástica do ruído. Portanto, o periódico não tem mais confiança na autenticidade dos dados. De acordo com a política de publicação do periódico, o artigo foi retirado.</t>
+  </si>
+  <si>
+    <t>Após a investigação pós-publicação, foram identificados no artigo problemas relacionados aos seguintes aspectos: inconsistência nas datas de conclusão do estudo, dados inviáveis ​​e erros estatísticos. Para facilitar uma análise completa e garantir a precisão das informações relatadas no artigo, os autores foram solicitados a fornecer os dados brutos do artigo. Na ausência de resposta dos autores, foi tomada a decisão de retratar o artigo, em conformidade com o compromisso do periódico em manter os mais altos padrões de integridade científica e precisão em pesquisas publicadas.</t>
+  </si>
+  <si>
+    <t>Preocupações foram levantadas quanto ao conteúdo científico do artigo, observando-se especificamente que os picos de detecção de EPR na Figura 6C eram semelhantes aos de vários outros artigos publicados. Os autores foram contatados para obter explicações, e em resposta forneceram novos dados para as Figuras 6C e 6D, que diferiam da submissão original. Com base na resposta do autor, os editores perderam a confiança nos dados apresentados. Consequentemente, o Editor-Chefe decidiu retratar o artigo.</t>
+  </si>
+  <si>
+    <t>Os editores solicitaram que o artigo fosse retirado devido a semelhanças irracionais nas formas das curvas (incluindo ruído) na Figura 11. Portanto, os editores perderam a confiança na confiabilidade dos resultados apresentados neste artigo.</t>
+  </si>
+  <si>
+    <t>Uma investigação conduzida pela equipe de Integridade em Pesquisa e Ética em Publicações da Elsevier, a pedido do periódico, encontrou frases que dificultam a análise de algumas passagens do artigo. Os autores foram solicitados a explicar o uso dessas passagens, mas não conseguiram. O editor perdeu a confiança nas conclusões do artigo e determinou que ele seja retratado. Os autores discordam dessa retratação e contestam os fundamentos da mesma.</t>
+  </si>
+  <si>
+    <t>Este artigo foi retirado a pedido do Editor-Chefe devido a preocupações com práticas de citação inadequadas. Constatou-se que, apesar de suas contribuições, há sobreposições reconhecidas entre esta publicação e trabalhos anteriores. Duas referências não foram citadas adequadamente ao longo do texto.</t>
+  </si>
+  <si>
+    <t>Este artigo foi retratado a pedido do autor. Após revisão posterior, foram identificados problemas significativos com os dados e potenciais falhas no algoritmo utilizado no artigo. Para manter o rigor acadêmico e a integridade do trabalho, o autor decidiu retratar o manuscrito para as revisões e melhorias necessárias.</t>
+  </si>
+  <si>
+    <t>Em uma recente revisão do artigo, os autores constataram que havia erros significativos no artigo. Esses erros incluem fórmulas e processos que consideram os efeitos da taxa de deformação e os fatores de dano, bem como erros na construção de modelos constitutivos dinâmicos. Além disso, a Figura 17 repetiu inadvertidamente a Figura 16. A Figura 17 deveria relatar a tenacidade ao impacto. Considerando a gravidade do erro e seu impacto na conclusão geral do artigo, os autores solicitam a retratação do artigo.</t>
+  </si>
+  <si>
+    <t>O periódico foi alertado sobre problemas neste artigo, incluindo a presença da frase "Até o meu conhecimento, corte em 2021", indicativo da saída do ChatGPT, a procedência desconhecida de quatorze estudos de caso e uma Figura 1 sem sentido. De acordo com a política do periódico, o autor foi contatado e solicitado a fornecer uma explicação para essas preocupações. O autor não atendeu satisfatoriamente a essa solicitação. Deve-se observar que, no momento da submissão, o autor declarou que ferramentas de IA generativa foram usadas para escrever o manuscrito. No entanto, na visão do periódico, seu uso parece ter se estendido além da melhoria da linguagem e da legibilidade e, portanto, representa uma violação da política do periódico. O Editor-Chefe perdeu a confiança na confiabilidade deste artigo e decidiu retratá-lo. O autor correspondente não concorda com a retratação. O periódico lamenta sinceramente que esses problemas não tenham sido detectados durante o processo de triagem e avaliação do manuscrito e pedimos desculpas aos leitores do periódico.</t>
+  </si>
+  <si>
+    <t>Este artigo foi retirado após uma alegação que levanta preocupações de que este artigo possa ter sido gerado por IA Generativa. O autor do artigo teve a oportunidade de apresentar evidências de que foi o criador original e genuíno da obra; no entanto, até o momento da publicação deste aviso, o periódico não recebeu nenhuma resposta. Os Editores-Chefes, com o apoio da equipe de Integridade em Pesquisa e Ética em Publicação da Elsevier, analisaram o artigo e concordam que há indícios suficientes para levantar sérias dúvidas sobre a autenticidade e originalidade da obra, e concordam que este artigo deve ser retirado.</t>
+  </si>
+  <si>
+    <t>O periódico foi alertado sobre a presença de figuras sem sentido neste artigo. De acordo com a política do periódico, o autor correspondente foi contatado e solicitado a fornecer uma explicação para essas preocupações e detalhar o processo usado para gerar as figuras. Os autores não atenderam satisfatoriamente a essa solicitação para provar a procedência das imagens. Deve-se observar que, no momento da submissão, os autores declararam que ferramentas de IA generativa foram usadas para escrever o manuscrito. Como a procedência das figuras não é totalmente compreendida, o Editor-Chefe perdeu a confiança na confiabilidade deste artigo e decidiu retratá-lo. Os autores não concordam com a retratação. O periódico lamenta sinceramente que essas questões não tenham sido detectadas durante o processo de triagem e avaliação do manuscrito e pedimos desculpas aos leitores do periódico.</t>
+  </si>
+  <si>
+    <t>Preocupações foram levantadas quanto à qualidade e originalidade do conteúdo em diversas seções do manuscrito. Embora os autores neguem o uso de ferramentas de IA Generativa, o conteúdo em certas seções é notavelmente básico e carece da profundidade esperada de um trabalho acadêmico. Isso gerou dúvidas sobre a contribuição geral e a confiabilidade da pesquisa. O Editor-Chefe contatou os autores com essas preocupações, mas não ficou satisfeito com a resposta. Para manter os padrões de integridade acadêmica e garantir a confiabilidade do registro publicado, o Editor decidiu retratar o artigo. Os autores discordam da retratação e contestam os fundamentos da mesma.</t>
+  </si>
+  <si>
+    <t>Após a publicação, uma investigação conduzida pela equipe de Integridade em Pesquisa e Ética em Publicação da Elsevier em nome do periódico identificou referências irrelevantes para o artigo. Os autores foram solicitados a comentar sobre a presença dessas referências em seus trabalhos, mas não conseguiram abordar satisfatoriamente o motivo das referências. Entre as referências irrelevantes, 12 citações foram adicionadas a este artigo, as quais não são relevantes para o tópico do artigo e beneficiam os autores. Consequentemente, o Editor não tem mais confiança na integridade e nas conclusões do artigo e decidiu retratá-lo. A comunidade científica tem uma opinião muito forte sobre este assunto e pedimos desculpas aos leitores do periódico por isso não ter sido detectado durante o processo de submissão. Os autores discordam da retratação e contestam os fundamentos para ela.</t>
+  </si>
+  <si>
+    <t>Este artigo foi retratado a pedido do Editor-Chefe. O artigo é uma cópia de um artigo que já foi aceito e agendado para publicação no periódico Image Analysis and Stereology. Uma das condições para a submissão de um artigo para publicação é que os autores declarem explicitamente que o artigo não foi publicado anteriormente e não está sendo considerado para publicação em outro periódico. Como tal, este artigo representa um uso indevido do sistema de publicação científica. A comunidade científica tem uma opinião muito forte sobre este assunto, e pedimos desculpas aos leitores do periódico por isso não ter sido detectado durante o processo de submissão.</t>
+  </si>
+  <si>
+    <t>Este artigo foi retratado a pedido do Editor-Chefe. Os autores plagiaram parte de um artigo que já havia sido publicado na Energies. Uma das condições para a submissão de um artigo para publicação é que os autores declarem explicitamente que seu trabalho é original e não foi publicado em outra publicação. A reutilização de quaisquer dados deve ser devidamente citada. Como tal, este artigo representa um grave abuso do sistema de publicação científica. A comunidade científica tem uma opinião muito forte sobre este assunto e pedimos desculpas aos leitores da revista por isso não ter sido detectado durante o processo de submissão.</t>
+  </si>
+  <si>
+    <t>O periódico recebeu uma reclamação de que várias figuras deste artigo haviam sido manipuladas. Em resposta, o periódico solicitou repetidamente que os autores fornecessem as figuras originais marcadas de forma específica para que tivéssemos certeza de que estávamos nos concentrando nas áreas de preocupação. Infelizmente, os autores não atenderam à solicitação. Eles sugeriram que houve "erros subconscientes" e que o software de processamento de imagens, que estava sendo usado por um técnico iniciante, pode ter sido responsável por introduzir erros nas imagens. No final, não conseguindo obter uma resposta clara, o Editor-Chefe decidiu retratar o artigo.</t>
+  </si>
+  <si>
+    <t>Motivo da retratação</t>
+  </si>
+  <si>
+    <t>Tipo de retratação</t>
+  </si>
+  <si>
+    <t>Referências</t>
+  </si>
+  <si>
+    <t>Compulsória</t>
+  </si>
+  <si>
+    <t>Plágio</t>
+  </si>
+  <si>
+    <t>Voluntária</t>
+  </si>
+  <si>
+    <t>Autoria sem consentimento</t>
+  </si>
+  <si>
+    <t>Após a publicação, uma investigação conduzida pelo periódico descobriu alterações suspeitas na autoria no momento da submissão e após a aceitação deste artigo. Este artigo foi originalmente submetido com autores diferentes e foi rejeitado. Logo depois, foi reenviado pelo segundo autor do artigo anteriormente rejeitado, e oito novos coautores. Após a aceitação, o autor correspondente foi alterado sem explicação adequada, o que é contrário à política do periódico sobre alterações de autoria. O Editor determinou que a autoria e as conclusões do artigo não podem ser consideradas confiáveis ​​e decidiu retratá-lo.</t>
+  </si>
+  <si>
+    <t>Manipulação de autoria</t>
+  </si>
+  <si>
+    <t>Falha metodológica</t>
+  </si>
+  <si>
+    <t>IA generativa</t>
+  </si>
+  <si>
+    <t>Negociada</t>
+  </si>
+  <si>
+    <t>O artigo foi baseado em dados obtidos pela primeira autora entre 2014 e 2018, durante sua pesquisa de doutorado na Universidade Jiao Tong de Xangai, e anos depois foi submetido e publicado sem a aprovação ou envolvimento de seus orientadores. Os autores pedem desculpas aos leitores e editores da Food Chemistry pelo inconveniente.</t>
+  </si>
+  <si>
+    <t>Publicação sem consentimento</t>
+  </si>
+  <si>
+    <t>Após a publicação, uma investigação conduzida pela equipe de Integridade em Pesquisa e Ética em Publicação da Elsevier, em nome do periódico, identificou referências irrelevantes para o artigo. Os autores foram solicitados a comentar sobre a presença dessas referências em seus trabalhos, mas não conseguiram responder satisfatoriamente ao motivo das mesmas. Consequentemente, o Editor não confia mais na integridade e nas conclusões do artigo e decidiu retratá-lo. A comunidade científica tem uma posição muito firme sobre este assunto e pedimos desculpas aos leitores do periódico por isso não ter sido detectado durante o processo de submissão.</t>
+  </si>
+  <si>
+    <t>Após a publicação, uma investigação conduzida em nome do periódico pela equipe de Integridade em Pesquisa e Ética em Publicação da Elsevier descobriu mudanças substanciais na autoria durante o processo de submissão deste artigo. Durante a revisão, quatro autores foram adicionados à lista de autores, e dois autores foram removidos, sem explicação adequada. O Editor não tem confiança de que todos os autores declarados do artigo se qualifiquem para autoria e, portanto, perdeu a confiança na validade/integridade do artigo e tomou a decisão de se retratar.</t>
+  </si>
+  <si>
+    <t>Preocupações foram levantadas no PubPeer em relação aos traços de XRD idênticos na figura 13. Quando contatados, os autores não forneceram uma explicação satisfatória para essa semelhança. O Editor, portanto, determinou que as conclusões do artigo não são confiáveis ​​e decidiu retratá-lo.</t>
+  </si>
+  <si>
+    <t>Dados suspeitos</t>
+  </si>
+  <si>
+    <t>Submissão duplicada</t>
+  </si>
+  <si>
+    <t>Base de indexação</t>
+  </si>
+  <si>
+    <t>ScienceDirect</t>
+  </si>
+  <si>
+    <t>O artigo está sendo retratado porque, aparentemente, o referido artigo foi produzido com amostras biológicas, em tese, utilizadas sem autorização das equipes responsáveis ​​pelo enfrentamento do encalhe do cetáceo.</t>
+  </si>
+  <si>
+    <t>Identificou-se que o referido artigo contém dezenas de transcrições ipsis litteris de parágrafos, sem aspas e sem a indicação da devida referência em nota de rodapé. Muito embora o referido livro conste da lista de referências citadas ao final do artigo e figure em cinco notas de rodapé, o artigo contém dezenas de parágrafos que consistem em transcrições literais da obra mencionada, sem aspas e sem a respectiva atribuição de autoria em nota de rodapé. Após análise minuciosa da situação, a equipe editorial da Revista de Investigações Constitucionais concluiu que as numerosas transcrições literais de parágrafos do livro acima mencionado no artigo em questão, desprovidas de aspas e da devida indicação de autoria em nota de rodapé, caracterizaram plágio da obra.</t>
+  </si>
+  <si>
+    <t>Os editores receberam uma solicitação dos autores para retratar o artigo. O autor correspondente declarou: Após cuidadosa consideração, devemos retratar este artigo, porque os dados obtidos em experimentos recentes desviaram consideravelmente dos dados das Figuras. Acreditamos que houve erros no experimento original, resultando em erros nos dados experimentais. Os editores solicitaram aos autores que fornecessem informações adicionais sobre as inconsistências encontradas no estudo. No entanto, os autores não apresentaram mais detalhes sobre essa questão. Considerando os dados imprecisos e o desvio experimental detectado, os editores concordaram e endossaram a decisão de retratar o artigo.</t>
+  </si>
+  <si>
+    <t>SciELO</t>
+  </si>
+  <si>
+    <t>Devido a alguns problemas de comunicação, outra versão desta revisão foi publicada em outro lugar. Consequentemente, esta versão da revisão foi retirada da publicação. O artigo retirado permanecerá online para manter o registro acadêmico, mas será marcado digitalmente com a marca d'água "Retratado" em cada página.</t>
+  </si>
+  <si>
+    <t>Taylor &amp; Francis</t>
+  </si>
+  <si>
+    <t>Este artigo foi retratado por conter uma quantidade significativa de material não referenciado de fontes publicadas anteriormente. A quantidade de material não referenciado excede os limites aceitáveis ​​definidos na política de correções da editora, independentemente de a ausência de referência ter sido intencional ou não. Os autores foram notificados da decisão de retratação.</t>
+  </si>
+  <si>
+    <t>Os autores do artigo acima mencionado identificaram erros na análise relatada (relacionados à inclusão de dados que deveriam ter sido excluídos), o que afeta a validade dos resultados. Portanto, solicitaram a retratação do artigo.</t>
+  </si>
+  <si>
+    <t>Desde a publicação, preocupações significativas foram levantadas sobre a integridade dos dados e resultados relatados no artigo. Quando solicitados a fornecer explicações, os autores não forneceram seus dados originais ou qualquer informação complementar necessária. Como a verificação da validade do trabalho publicado é fundamental para a integridade do registro acadêmico, estamos, portanto, retirando o artigo. O autor correspondente listado nesta publicação foi informado.</t>
+  </si>
+  <si>
+    <t>Este manuscrito está sendo retratado a pedido dos autores. No processo de acompanhamento dos resultados da publicação, pesquisadores do grupo do autor correspondente descobriram recentemente que os dados experimentais originais de um subconjunto de resultados de PCR quantitativa foram intencionalmente falsificados pelo primeiro autor. Como consequência dessas manipulações, não conseguimos manter as conclusões centrais extraídas na publicação e retratamos o artigo. Nessas circunstâncias, gostaríamos também de retirar o artigo sobre o Ciclo Celular, pois ele comenta resultados que agora são questionáveis. Pedimos sinceras desculpas por qualquer inconveniente que esta publicação possa ter causado.</t>
+  </si>
+  <si>
+    <t>Revisão</t>
+  </si>
+  <si>
+    <t>O artigo foi retirado, pois os resultados experimentais mostrados nas figuras 5 e 6 não puderam ser replicados, o que afetou os resultados relatados do artigo. Ao perceberem esse erro, os autores levaram a questão ao Editor e à Editora do periódico.</t>
+  </si>
+  <si>
+    <t>O artigo foi retirado devido a omissões cometidas durante o processo de revisão por pares, que resultaram na publicação online incorreta do artigo. Solicitamos uma revisão adicional por revisores independentes. Isso confirmou que os resultados centrais e a metodologia do estudo em questão não são confiáveis ​​e, portanto, inadequados para publicação.</t>
+  </si>
+  <si>
+    <t>Desde a publicação, surgiram preocupações quanto à integridade dos dados do artigo. Quando contatados para esclarecimentos, os autores não conseguiram abordar completamente as preocupações levantadas. Como a verificação da validade do trabalho publicado é fundamental para a integridade do registro acadêmico, estamos, portanto, retirando o artigo. Todos os autores listados nesta publicação foram informados.</t>
+  </si>
+  <si>
+    <t>Este artigo foi retratado devido à reciclagem de texto de outros artigos dos mesmos autores, bem como à sobreposição significativa com artigos escritos por outros autores, nenhum dos quais foi devidamente referenciado. Quando solicitados, os autores não puderam fornecer uma cópia de seu conjunto de dados ou evidências de aprovação ética. No entanto, gostaríamos de reconhecer que os autores cooperaram totalmente neste processo de nossa investigação.</t>
+  </si>
+  <si>
+    <t>Fomos informados de que a lista completa de autoria e as afiliações deste manuscrito foram alteradas após a submissão do artigo. Entramos em contato com os autores para obter explicações, mas não recebemos uma resposta dentro do prazo solicitado. Além disso, o conteúdo do artigo se sobrepõe significativamente a um manuscrito submetido anteriormente ao periódico, com uma equipe de autoria diferente listada. Como a determinação da autoria é fundamental para a integridade do trabalho publicado, estamos retirando o artigo. Todos os autores listados nesta publicação foram notificados.</t>
+  </si>
+  <si>
+    <t>O autor informou que seu orientador rejeitou o resultado deste artigo e o aconselhou a aprimorá-lo com precisão. Portanto, o autor solicitou a retirada deste manuscrito.</t>
+  </si>
+  <si>
+    <t>O Editor retirou este artigo por não ter mais confiança nas conclusões nele contidas. A revisão pós-publicação concluiu que os eventos adversos de interesse especial relatados foram apresentados de forma a levar a interpretações ambíguas ou incorretas quanto à relação com a vacina. Diante dessas constatações, o Editor e a editora decidiram que este artigo deve ser removido por questões de saúde pública. Os autores discordam desta retratação.</t>
+  </si>
+  <si>
+    <t>Springer Nature</t>
+  </si>
+  <si>
+    <t>O Editor-Chefe retirou este artigo por apresentar evidências de manipulação de autoria. Originalmente, este artigo incluía um segundo autor. O segundo autor informou à editora que não esteve envolvido na redação do artigo e que não consentiu com a submissão e publicação do mesmo. Além disso, o instituição confirmou que o segundo autor não contribuiu para este artigo e que o primeiro autor não é afiliado à referida instituição. Dadas essas preocupações, o Editor-Chefe não tem mais confiança nos resultados e conclusões deste artigo. A autoria e as afiliações listadas no artigo também foram atualizadas.</t>
+  </si>
+  <si>
+    <t>Os Editores-Chefes retiraram este artigo após preocupações levantadas sobre os resultados relatados nas Tabelas 2 e 3. O autor forneceu os dados de origem deste artigo a pedido da Editora, mas outras discrepâncias foram observadas entre os dados de origem e os resultados relatados. Os Editores-Chefes não confiam mais na confiabilidade das descobertas e conclusões deste artigo. O autor concorda com a retratação.</t>
+  </si>
+  <si>
+    <t>Os autores retiraram este artigo após identificarem um erro na Equação 1. As variáveis ​​dentro da raiz quadrada desta equação deveriam ter sido elevadas ao quadrado. Este erro afeta os valores calculados para o índice de brancura apresentados nas Tabelas 1 e 2, bem como em outras partes do texto. Os autores tiveram a oportunidade de reenviar um manuscrito revisado com os valores corrigidos para revisão por pares.</t>
+  </si>
+  <si>
+    <t>Após a publicação, surgiram preocupações sobre os processos de revisão por pares e tomada de decisão para esta edição especial. Após uma investigação, foi confirmado que os artigos incluídos nesta edição especial não foram revisados ​​adequadamente, em conformidade com os padrões e a política de revisão por pares do periódico. Como o rigor do processo de revisão por pares é fundamental para a integridade do processo de publicação, o Editor e a Publisher decidiram retirar todos os artigos da Edição Especial acima mencionada. O periódico não confirmou se os autores tinham conhecimento desse comprometimento do processo de revisão por pares.</t>
+  </si>
+  <si>
+    <t>Este estudo teve como objetivo investigar aplicações recentes de Inteligência Artificial (IA) na busca de anterioridade em patentes. Para tanto, adotou uma abordagem descritiva, transversal e qualitativa. Os dados foram coletados por meio de buscas estruturadas nas bases de dados ScienceDirect, Web of Science e SciELO, utilizando termos-chave relevantes. Os dados coletados foram então submetidos à técnica de Revisão de Escopo. Doze estudos preencheram os critérios de inclusão, com a maioria relatando efeitos positivos da IA ​​na automatização de tarefas repetitivas, na extração de informações relevantes de textos complexos e na identificação de padrões despercebidos por analistas humanos. O estudo conclui que a IA pode melhorar a eficiência do sistema de propriedade intelectual e impulsionar a inovação e a competitividade tecnológica.</t>
+  </si>
+  <si>
+    <t>A redação de pedidos de patente ainda representa um desafio significativo para muitos pesquisadores, principalmente devido à complexidade técnica necessária. Embora os avanços recentes em Inteligência Artificial Generativa (GenAI) demonstrem potencial para compreensão e análise de textos, sua eficácia em contextos jurídicos ainda é pouco explorada. Este estudo analisou patentes relacionadas à GenAI que podem auxiliar na redação de pedidos de patente. Para tanto, foi conduzido um estudo descritivo, transversal, com abordagem quantitativa, e os procedimentos técnicos foram baseados em pesquisa documental. A coleta de dados consistiu em buscas estruturadas em bancos de patentes. Os dados coletados foram processados ​​e analisados ​​por meio de estatística descritiva e inferencial. Os resultados indicaram que os Estados Unidos lideram no número de depósitos de patentes, sendo empresas e universidades os principais depositantes. Além disso, o modelo de previsão tecnológica indicou um crescimento moderado no número de depósitos nos próximos anos.</t>
+  </si>
+  <si>
+    <t>A prospecção tecnológica é uma ferramenta utilizada para mapear o desenvolvimento tecnológico. A Inteligência Artificial (IA) objetiva simular ou reproduzir a inteligência humana em máquinas. O reconhecimento de imagem refere-se à identificação de padrões numa imagem. O presente trabalho revisou o desenvolvimento tecnológico do uso da IA no reconhecimento de imagem. A metodologia utilizada foi a prospecção tecnológica patentária com o uso da plataforma Orbit. Foram encontradas 5.154 patentes, sendo que o auge de depósitos ocorreu em 2022 com 1.109 patentes. O país com mais depósitos foi a China com 3.713 patente. A maioria dos depósitos foram classificadas classificação G-Física, código G06F com 1.923 documentos. Em relação ao status dos depósitos, 17,08% das patentes não estão em vigor.</t>
+  </si>
+  <si>
+    <t>Este estudo investigou o estado atual das publicações científicas sobre a aplicação de Inteligência Artificial (IA) na análise de patentes, com foco na automação e na melhoria da eficiência dos processos de Propriedade Intelectual. Utilizando a base de dados Lens, foram analisadas as publicações relacionadas ao uso de IA em patentes, destacando-se os principais autores, países e campos de estudo envolvidos. Os resultados mostram um crescimento significativo no número de publicações, especialmente nos últimos anos, refletindo o interesse crescente na aplicação de IA para otimizar a análise de patentes. As ferramentas de IA identificaram padrões e relacionamentos em documentos de patentes, reduzindo o tempo de processamento e aumentando a precisão na análise, o que pode trazer um impacto significativo na proteção de invenções e na eficiência do sistema de patentes.</t>
+  </si>
+  <si>
+    <t>A sustentabilidade é discutida frequentemente devido problemas ambientais, como emissão de gases de efeito estufa pela queima de combustíveis fósseis. Objetivando diminuir essa emissão e ser sustentável, entre as alternativas há o uso dos combustíveis sustentáveis tendo como matéria-prima biomassas. Os biocombustíveis são pesquisados há longa data e ganharam desenvoltura na produção com inclusão da inteligência artificial, agregando no aumento e qualidade, e inclusive criando propriedade intelectual, em específico, patentes. O objetivo da pesquisa é analisar a relação entre as pesquisas acadêmicas de IA na produção de combustíveis sustentáveis e pesquisas que envolvem patentes de combustíveis sustentáveis. Foram aplicados métodos comparativo, exploratório, descritivo, explicativo, pesquisa aplicada e bibliográfico. Foi utilizada a correlação de Pearson, para verificar o quão forte é a relação entre os assuntos pesquisados. Os resultados indicam forte relação entre os assuntos, mostrando indícios do alinhamento dos estudos analisados. Concluiu-se que os temas abordados são fortemente correlacionados e as áreas de pesquisa andam alinhadas.</t>
+  </si>
+  <si>
+    <t>Este estudo explora a relação entre inteligência artificial (IA) e propriedade intelectual (PI), examinando como a IA está transformando a inovação e a proteção de PI. A pesquisa, de caráter exploratório, baseia-se em revisão bibliográfica e análise de dados secundários de PI fornecidos por escritórios especializados. Para a análise dos dados, foram utilizados os softwares RStudio e o Sistema Orbit Intelligence da Questel, focando em patentes. A pesquisa mapeou 345 artigos, 120 programas de computador e 438 famílias de patentes, com destaque para a produção entre 2019 e 2023. Os resultados mostram que empresas e instituições estão utilizando IA para proteger direitos de PI, evidenciando a importância crescente da IA na inovação e os desafios éticos, econômicos e sociais que acompanham essa transformação.</t>
+  </si>
+  <si>
+    <t>Este estudo explora o uso de inteligência artificial (IA) para a detecção e combate de plantas daninhas, destacando a inovação e os avanços tecnológicos no campo da agricultura. Utilizando a plataforma Lens, foram analisadas 45 patentes registradas entre 2015 e 2024, evidenciando um crescimento significativo na adoção de tecnologias avançadas, especialmente nos anos de 2021 e 2023. A pesquisa revelou que a China lidera a quantidade de patentes, com destaque para as contribuições da Northeast Agricultural University e da Anhui Agricultural University.. O estudo também destacou os principais inventores, com Xu Yuzhen liderando o número de patentes, refletindo a relevância da inovação individual no avanço tecnológico. Os resultados demonstram o potencial da IA para transformar a agricultura, oferecendo soluções mais precisas e sustentáveis para o manejo de plantas daninhas, e destacam a importância contínua do investimento em tecnologias emergentes para enfrentar os desafios futuros da agricultura.</t>
+  </si>
+  <si>
+    <t>A pesquisa explora a contribuição da inteligência artificial (IA) em práticas agrícolas sustentáveis, com foco em benefícios para as pessoas, o meio ambiente e a economia. Com o objetivo de atender metas como Fome Zero e agricultura sustentável, investiga-se o impacto das tecnologias de IA na agricultura, identificando os obstáculos que podem dificultar seu uso sustentável e as oportunidades que ela oferece. De natureza exploratória, a pesquisa baseia-se em uma revisão bibliográfica e na análise de dados secundários de patentes, utilizando os softwares R e RStudio para o tratamento de dados científicos, e o Sistema Orbit Intelligence da Questel para a análise de patentes. Foram mapeados 217 artigos e 32 famílias de patentes com maior concentração de esforços por estudiosos, empresas e academia nos últimos cinco anos, especialmente em 2023. A Índia destaca-se como o país que mais investe em tecnologias de IA para impactos de sustentabilidade, enfrentando, contudo, desafios para fornecer aos agricultores o conhecimento necessário para otimizar o uso dessas tecnologias.</t>
+  </si>
+  <si>
+    <t>Este artigo investiga a integração da inteligência artificial (IA) na gestão da propriedade intelectual, visando identificar e analisar soluções inovadoras e oportunidades de aprimoramento específicas para a cultura de cítricos. A pesquisa, de caráter exploratório, utilizou a Revisão Sistemática de Literatura (RSL) de 145 artigos obtidos da base científica Scopus e a coleta e análise de dados de 34 famílias de patentes por meio da plataforma Orbit Intelligence. Os resultados indicaram um aumento significativo de 197% no número de artigos relacionadas à IA na cultura de cítricos nos últimos cinco anos (2019-2023) em comparação com o período anterior (2014-2018). As patentes analisadas demonstraram a aplicação prática de sistemas de visão computacional e algoritmos de aprendizagem de máquina para resolver problemas agrícolas, destacando o potencial da IA em promover avanços na gestão da propriedade intelectual e na melhoria da produção de cítricos.</t>
+  </si>
+  <si>
+    <t>Devido à evolução da inteligência artificial e as violações de direito autoral, se faz necessário refletir os mecanismos e implicações do processo de coleta de dados. O objetivo deste trabalho consiste em entender as preocupações que de diversos autores quanto à privacidade, dados de direitos autorais, analisar as práticas atuais e propor medidas baseadas na revisão de literatura e análise qualitativa. Neste estudo, encontramos algumas lacunas referentes à regulamentação e ética, além disso, encontramos desafios para proteger direitos autorais e propriedade intelectual usando inteligência artificial. Por fim, concluiu-se que é necessária a criação de regulamentação a longo prazo com o objetivo de restringir as violações de direitos autorais.</t>
+  </si>
+  <si>
+    <t>O objetivo deste estudo é realizar uma revisão sistemática sobre a aplicação do Processamento de Linguagem Natural (PLN) e das técnicas de Inteligência Artificial (IA) na pesquisa e gestão de patentes. Para alcançar esse objetivo, foi conduzida uma pesquisa sistematizada utilizando o software Harzing's Publish or Perish para buscar trabalhos científicos na base de dados Google Scholar. Após a aplicação de critérios rigorosos de exclusão, foram selecionados e analisados cinco estudos relevantes. A revisão revela que o PLN e a IA estão sendo empregados de maneira inovadora para enfrentar desafios no campo da Propriedade Intelectual. As tecnologias não só melhoram a recomendação e a classificação de patentes, mas também contribuem para a geração de novas ideias e o suporte ao usuário.</t>
+  </si>
+  <si>
+    <t>O uso de Inteligência Artificial (IA) com foco na saúde mental apresenta uma considerável tendência de crescimento, refletindo um aumento significativo nas inovações tecnológicas voltadas para o diagnóstico, tratamento e monitoramento de condições psicológicas. Este estudo realiza uma análise patentométrica das tendências emergentes no campo da IA aplicada à saúde mental. Utilizando bases de dados internacionais e nacionais de patentes, identificamos os principais domínios de inovação e mapeamos as dinâmicas tecnológicas nos últimos cinco anos. Os resultados preliminares revelam um crescimento expressivo nas patentes relacionadas a algoritmos de machine learning e ferramentas de diagnóstico digital, com maior destaque para o crescimento de depósito de patentes a partir de 2019 e com maior diferencial em 2022, possivelmente sofrendo influência dos efeitos pós-pandemia, sobressaindo-se o papel das grandes empresas de tecnologia e instituições de pesquisa. Este estudo busca oferecer uma visão abrangente do estado atual e das perspectivas futuras para a aplicação de IA na saúde mental.</t>
+  </si>
+  <si>
+    <t>Este trabalho analisa recursos contra indeferimentos em registros de marcas depositados em 2020 no INPI, com foco em marcas semelhantes conforme o Art. 124, inciso XIX da Lei nº 9.279/96. Com mais de 60 mil indeferimentos entre 260 mil solicitações, a pesquisa investiga a possibilidade de coexistência de marcas similares, considerando a doutrina jurídica. A metodologia utiliza Processamento de Linguagem Natural (PLN) com o modelo BERT para análise semântica, atribuindo notas de similaridade de 0,0 (idênticas) a 10,0 (completamente diferentes). Os dados são organizados em planilhas para facilitar a análise estatística, e a moda das notas é calculada para identificar tendências. Os resultados indicam que o uso de técnicas de PLN e processamento de dados oferece uma base sólida para analisar recursos, revelando padrões em colidências aceitas e rejeitadas. Recomenda-se ajustar o modelo BERT para aprimorar a precisão e apoiar estratégias jurídicas eficazes.</t>
+  </si>
+  <si>
+    <t>Estudos de revisão de patentes são cruciais para entender as tendências tecnológicas nos bancos de dados de propriedade intelectual. O uso de ferramentas de IA otimiza esse processo ao melhorar a extração de dados dos documentos de patentes e reduzir o tempo de execução. Assim, o objetivo deste estudo foi analisar se a ferramenta de IA, Scispace, é eficiente para extrair as informações desejadas das patentes a fim de comparar o tempo investido e qualidade da extração em relação aos métodos tradicionais. A busca das patentes se deu pelos métodos tradicionais utilizando os descritores: artificial intelligence AND skin câncer, nas bases de dados gratuitas, Espacenet e WIPO. Inicialmente foram recuperados 24 documentos, que após exclusão de duplicatas e de patentes fora do escopo da pesquisa resultou em 13 documentos para análise. A fase de extração de dados foi feita por dois revisores independentes, metade usando IA (com a ferramenta Scispace) e a outra metade por extração manual (realizada pelos próprios revisores, de forma independente e alternada). O processo realizado com a IA durou 5 minutos, enquanto que pelo método tradicional perdurou por 66 min, demonstrando a rapidez e otimização do tempo investido, bem como dados recuperados de forma equivalente.</t>
+  </si>
+  <si>
+    <t>Este trabalho visa desenvolver e validar um modelo de inteligência artificial (IA) para a automatização da triagem e classificação de patentes no Instituto Nacional de Pesquisas da Amazônia (INPA). O modelo utiliza técnicas de aprendizado de máquina, incluindo redes neurais artificiais, para prever a aprovação ou rejeição de pedidos de patente com base em dados históricos. O processo de desenvolvimento envolveu o tratamento de dados, o balanceamento de classes com a técnica SMOTE e a construção de um fluxo de aprendizado supervisionado. A implementação da solução em uma API Flask permite sua aplicação prática em tempo real. Resultados preliminares indicam alta precisão na classificação, sugerindo que o modelo pode aprimorar significativamente a gestão de propriedade intelectual no INPA.</t>
+  </si>
+  <si>
+    <t>O presente trabalho tem como objetivo principal explanar o quanto a exposição de dados faz-se presente no âmbito da Internet, apresentando riscos quanto à proteção dos direitos sobre as criações da mente, como invenções, obras literárias e artísticas, projetos, símbolos, nomes e imagens utilizadas no comércio, é conhecida como propriedade intelectual. O avanço da Inteligência Artificial acende o alerta para a vigência dos direitos autorais, pelo fato de sua tecnologia ser baseada em um grande Banco de Dados retirado justamente do espaço virtual. No Brasil, o tópico de regularização está numa vigente discussão pela Lei 9.610/98 que aborda dos direitos autorais das criações artísticas intelectuais, e a Lei 9.609/98 que aborda os direitos autorais de programas de computação. As duas leis garantiam a proteção dos direitos através da exclusividade de exploração, o que, de acordo com muitos artistas, não tem sido respeitado como utilizações de inteligências artificiais.</t>
+  </si>
+  <si>
+    <t>Os softwares de edição de imagens estão se tornando mais autônomos e inteligentes, como é o caso do Firefly da Adobe, que usa inteligência artificial generativa para criar imagens a partir de texto. Isso levanta questões dentro da Propriedade Intelectual sobre o direito autoral dessas imagens. Como objetivo o estudo analisou como a Adobe lida com essas questões por meio de um estudo de caso no site da empresa, comparando esses dados com uma breve revisão de literatura. A pesquisa revelou que a Adobe possui políticas claras e orienta seus usuários a evitarem o uso indevido das imagens geradas para fins comerciais, mas que essas questões ainda precisam de uma regulamentação no Brasil por meio de uma política nacional de IA.</t>
+  </si>
+  <si>
+    <t>A avaliação de patentes garante a legitimidade das invenções, mas os examinadores enfrentam o desafio de conciliar agilidade com análises precisas. Este estudo explora o potencial dos transformadores generativos pré-treinados (GPTs) para automatizar etapas do processo de exame de patentes. O GPT-4 foi treinado com um corpus de patentes, aprendendo a identificar padrões complexos e extrair informações relevantes. Após um refinamento com dados específicos sobre os requisitos de patenteabilidade, o modelo foi avaliado em novas tarefas de classificação de pedidos de patente. Os resultados indicaram uma alta precisão do GPT-4, embora a necessidade de reduzir a taxa de falsos negativos seja evidente. Acredita-se que a otimização dos hiperparâmetros e a expansão do conjunto de dados de treinamento possam aprimorar a capacidade do modelo de capturar nuances semânticas e conceituais, tornando-o uma ferramenta ainda mais eficaz na classificação precisa de pedidos de patente.</t>
+  </si>
+  <si>
+    <t>A propriedade intelectual protege criações do intelecto humano, como invenções, marcas e obras artísticas, por meio de direitos legais como patentes e direitos autorais. No Brasil, as marcas são definidas como sinais visuais que diferenciam produtos e serviços e devem seguir as regras estabelecidas pela Lei de Propriedade Industrial. O Instituto Nacional da Propriedade Industrial (INPI) é responsável pelo registro de marcas, o que garante proteção, exclusividade e valor para o proprietário. Apesar de sua importância estratégica e econômica, muitos empresários subestimam o valor do registro oficial. A inteligência artificial está revolucionando a proteção da propriedade intelectual ao detectar infrações rapidamente, mas também apresenta desafios ao criar conteúdos que podem infringir direitos existentes.</t>
+  </si>
+  <si>
+    <t>A utilização da IA nos setores públicos está se tornando cada vez mais comum, modificando assim a forma como os governos atuam fornecendo os serviços para sua população. O presente trabalho tem como objetivo analisar o uso da inteligência artificial (IA) no setor público abordando os benefícios da aplicação da inteligência artificial como o atendimento aos cidadãos, auxílio nas tarefas, segurança na administração, além dos desafios e insegurança que o avanço da tecnologia vem gerando na sociedade. É uma mudança bastante significativa e benéfica, afinal, valorizando a eficiência e aperfeiçoando a qualidade do sistema de serviços disponibilizados aos cidadãos. A metodologia aplicada, trata-se de uma pesquisa de cunho qualitativo, respaldada na pesquisa bibliográfica, através de buscas em artigos científicos, que auxiliaram na análise conceitual dos temas investigados. Contudo, é de extrema importância que a IA seja realizada de forma responsável e ética, assegurando que os direitos fundamentais dos cidadãos não sejam violados durante todo o processo.</t>
+  </si>
+  <si>
+    <t>Resumos</t>
+  </si>
+  <si>
+    <t>Fonte de dados</t>
+  </si>
+  <si>
+    <t>Método</t>
+  </si>
+  <si>
+    <t>Tipo de PI</t>
+  </si>
+  <si>
+    <t>Aplicação da IA</t>
+  </si>
+  <si>
+    <t>Escopo geográfico</t>
+  </si>
+  <si>
+    <t>Múltiplas bases</t>
+  </si>
+  <si>
+    <t>Revisão de escopo</t>
+  </si>
+  <si>
+    <t>Patente</t>
+  </si>
+  <si>
+    <t>Busca</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Espacenet</t>
+  </si>
+  <si>
+    <t>Patentometria</t>
+  </si>
+  <si>
+    <t>Redação</t>
+  </si>
+  <si>
+    <t>Orbit Intelligence</t>
+  </si>
+  <si>
+    <t>Reconhecimento de imagens</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Análise</t>
+  </si>
+  <si>
+    <t>Web of Science</t>
+  </si>
+  <si>
+    <t>Bibliometria</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>Gestão de PI</t>
+  </si>
+  <si>
+    <t>Revisão da literatura</t>
+  </si>
+  <si>
+    <t>Direito autoral</t>
+  </si>
+  <si>
+    <t>Proteção de dados</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
+  <si>
+    <t>Revisão sistemática</t>
+  </si>
+  <si>
+    <t>Gestão de patentes</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>INPI</t>
+  </si>
+  <si>
+    <t>Jurimetria</t>
+  </si>
+  <si>
+    <t>Marcas</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Extração de dados</t>
+  </si>
+  <si>
+    <t>INPA</t>
+  </si>
+  <si>
+    <t>Exploratório</t>
+  </si>
+  <si>
+    <t>Criação de imagens</t>
+  </si>
+  <si>
+    <t>Pesquisa bibliográfica</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Setor público</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +481,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +826,1229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A0FAE5-A017-4DE0-A292-084E5C1C0489}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="122.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="114" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="114" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="114" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B4D397-9941-419B-8C33-4280CBB27775}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="122.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="114" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="114" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="114" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="114" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>